--- a/rubric.xlsx
+++ b/rubric.xlsx
@@ -49,9 +49,6 @@
     <t xml:space="preserve">     Users can see a list of items s/he has recorded</t>
   </si>
   <si>
-    <t xml:space="preserve">     Users can filter items by at least two features (like category and amount smaller or greater than certain number) </t>
-  </si>
-  <si>
     <t xml:space="preserve">     Users can lend (debt) money to another user and record that </t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Technology: Node.js, MongoDB, Javascript, JQuery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     MongoDB is correctly installed and running on the instance</t>
   </si>
 </sst>
 </file>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -455,7 +455,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -510,39 +510,39 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
         <v>10</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -574,12 +574,12 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -603,12 +603,12 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/rubric.xlsx
+++ b/rubric.xlsx
@@ -88,10 +88,10 @@
     <t xml:space="preserve">     Items have a name, amount, category, and description/Note</t>
   </si>
   <si>
-    <t>Technology: Node.js, MongoDB, Javascript, JQuery</t>
-  </si>
-  <si>
     <t xml:space="preserve">     MongoDB is correctly installed and running on the instance</t>
+  </si>
+  <si>
+    <t>Technology: PHP, MongoDB, Javascript, Jquery, AJAX</t>
   </si>
 </sst>
 </file>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -510,7 +510,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/rubric.xlsx
+++ b/rubric.xlsx
@@ -76,9 +76,6 @@
     <t xml:space="preserve">     Site is visually appealing </t>
   </si>
   <si>
-    <t>Creative Portion</t>
-  </si>
-  <si>
     <t>Creative Project Rubric: Personal Expense Management Web App</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Technology: PHP, MongoDB, Javascript, Jquery, AJAX</t>
+  </si>
+  <si>
+    <t>Creative Portion: Bootstrap (first time), Display by Category, Real Time Search, Change Background Color</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -510,7 +510,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>20</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
